--- a/data_year/zb/综合/民族自治地方/民族自治地方教育.xlsx
+++ b/data_year/zb/综合/民族自治地方/民族自治地方教育.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,250 +468,100 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.89</v>
+        <v>67.4421</v>
       </c>
       <c r="C2" t="n">
-        <v>872.97</v>
+        <v>1050.3548</v>
       </c>
       <c r="D2" t="n">
-        <v>89.9402</v>
+        <v>90.7285</v>
       </c>
       <c r="E2" t="n">
-        <v>1886.0084</v>
+        <v>1536.2948</v>
       </c>
       <c r="F2" t="n">
-        <v>3.6391</v>
+        <v>9.4695</v>
       </c>
       <c r="G2" t="n">
-        <v>34.2</v>
+        <v>161.8806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.1</v>
+        <v>69.87779999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>1082.39</v>
+        <v>1039.6445</v>
       </c>
       <c r="D3" t="n">
-        <v>88.09999999999999</v>
+        <v>89.3862</v>
       </c>
       <c r="E3" t="n">
-        <v>1667.7</v>
+        <v>1484.4181</v>
       </c>
       <c r="F3" t="n">
-        <v>6.3</v>
+        <v>9.6912</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>165.9152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.57</v>
+        <v>69.3283</v>
       </c>
       <c r="C4" t="n">
-        <v>1092.61</v>
+        <v>1021.4721</v>
       </c>
       <c r="D4" t="n">
-        <v>88.2</v>
+        <v>88.9401</v>
       </c>
       <c r="E4" t="n">
-        <v>1653.1</v>
+        <v>1478.6986</v>
       </c>
       <c r="F4" t="n">
-        <v>7.1</v>
+        <v>10.0625</v>
       </c>
       <c r="G4" t="n">
-        <v>113</v>
+        <v>171.8717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.7076</v>
+        <v>68.6915</v>
       </c>
       <c r="C5" t="n">
-        <v>1083.5901</v>
+        <v>999.532</v>
       </c>
       <c r="D5" t="n">
-        <v>89.1405</v>
+        <v>86.0506</v>
       </c>
       <c r="E5" t="n">
-        <v>1645.3871</v>
+        <v>1437.7698</v>
       </c>
       <c r="F5" t="n">
-        <v>7.7105</v>
+        <v>10.3154</v>
       </c>
       <c r="G5" t="n">
-        <v>123.4624</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>64.7337</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1061.5717</v>
-      </c>
-      <c r="D6" t="n">
-        <v>89.9776</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1615.5343</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8.2202</v>
-      </c>
-      <c r="G6" t="n">
-        <v>137.4689</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>66.1871</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1050.1506</v>
-      </c>
-      <c r="D7" t="n">
-        <v>90.5851</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1580.8933</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8.6976</v>
-      </c>
-      <c r="G7" t="n">
-        <v>148.5061</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>67.4421</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1050.3548</v>
-      </c>
-      <c r="D8" t="n">
-        <v>90.7285</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1536.2948</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9.4695</v>
-      </c>
-      <c r="G8" t="n">
-        <v>161.8806</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>69.87779999999999</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1039.6445</v>
-      </c>
-      <c r="D9" t="n">
-        <v>89.3862</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1484.4181</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.6912</v>
-      </c>
-      <c r="G9" t="n">
-        <v>165.9152</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>69.3283</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1021.4721</v>
-      </c>
-      <c r="D10" t="n">
-        <v>88.9401</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1478.6986</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.0625</v>
-      </c>
-      <c r="G10" t="n">
-        <v>171.8717</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>68.6915</v>
-      </c>
-      <c r="C11" t="n">
-        <v>999.532</v>
-      </c>
-      <c r="D11" t="n">
-        <v>86.0506</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1437.7698</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10.3154</v>
-      </c>
-      <c r="G11" t="n">
         <v>178.6723</v>
       </c>
     </row>
